--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/admin_login_Data.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/admin_login_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>UserName_Ed</t>
   </si>
@@ -56,7 +56,13 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>t_GeethaNanda@smart.com</t>
+    <t>admin.fdab</t>
+  </si>
+  <si>
+    <t>qa@123456</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -118,6 +124,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,7 +435,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,19 +460,20 @@
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>123456</v>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="t_GeethaNanda@smart.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/admin_login_Data.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/admin_login_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>UserName_Ed</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>admin.fdab</t>
-  </si>
-  <si>
-    <t>qa@123456</t>
   </si>
   <si>
     <t>Admin</t>
@@ -435,7 +432,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,17 +457,17 @@
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="t_GeethaNanda@smart.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="qa@123456"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
